--- a/medicine/Psychotrope/Café_suspendu/Café_suspendu.xlsx
+++ b/medicine/Psychotrope/Café_suspendu/Café_suspendu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_suspendu</t>
+          <t>Café_suspendu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le café suspendu (en italien, caffè sospeso[1]; en napolitain, cafè suspiso) est une tradition de solidarité envers les plus pauvres, pratiquée dans les bars napolitains. Elle est née dans le café napolitain Gambrinus au milieu du vingtième siècle. La coutume a connu un déclin à la fin du vingtième siècle, pour renaître dans les années deux mille.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le café suspendu (en italien, caffè sospeso; en napolitain, cafè suspiso) est une tradition de solidarité envers les plus pauvres, pratiquée dans les bars napolitains. Elle est née dans le café napolitain Gambrinus au milieu du vingtième siècle. La coutume a connu un déclin à la fin du vingtième siècle, pour renaître dans les années deux mille.
 Elle consiste – pour un Napolitain heureux et quelle qu’en soit la raison – à commander un café et en payer deux, un pour lui et un autre pour un client démuni qui en fera la demande.
 Le 10 décembre 2011, a été instaurée la  Giornata del Caffè Sospeso (« journée du café suspendu ») avec le soutien de plusieurs organisations culturelles et le maire de Naples, Luigi De Magistris.
 </t>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_suspendu</t>
+          <t>Café_suspendu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Implantation du concept en France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La tradition du caffè sospeso a été importée en France par le Mouvement des indignés au début de l'année 2013. Depuis lors, des groupes locaux se sont organisés, notamment sur les réseaux sociaux, et des bars et café français ont adopté cette tradition. Des médias en ont aussi parlé et cette tradition a connu un certain engouement populaire. 
 Le caffè sospeso est plus communément appelé en France café suspendu ou café en attente, et s'est élargi aux « baguettes suspendues », produit national français. 
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_suspendu</t>
+          <t>Café_suspendu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Critiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le constat après un an d'implantation en France a été fait par des médias et les nombreux initiateurs du concept. Le mouvement du caffè sospeso a essuyé plusieurs critiques, notamment sur le fait que les gérants des dits cafés dans l'opération encaissent un deuxième café qui n'est pas nécessairement redonné, ou du moins avec un système d'échange du café assez aléatoire. Le système d'échange du caffè sospeso est généralement géré par le gérant qui va mettre en place un accrochage des tickets de caisse ou un tableau noir avec une croix pour chaque consommation.
 Les cafés offerts sont parfois consommés, mais beaucoup sont laissés en attente, ainsi les internautes sur la toile se demandent comment faire pour ne plus les laisser sospesi indéfiniment.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_suspendu</t>
+          <t>Café_suspendu</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,20 +598,136 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Association suisse "Le suspendu"
-L'association "Le Suspendu" a commencé ses activités en mai 2017 et il est actuellement partenaire avec cinq restaurants situés à Lausanne et à Morges. Les visiteurs sont invités à déguster les délicieux plats proposés dans ces restaurants et à offrir des Suspendus à leurs amis. De plus, ils vous invitent à visiter leur site web régulièrement pour découvrir leurs nouveaux partenaires.
-Partenaires - Donateurs (liste non exhaustive)
-« Solidarité urbaine », sur lesuspendu.ch (consulté le 30 décembre 2023)
+          <t>Association suisse "Le suspendu"</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'association "Le Suspendu" a commencé ses activités en mai 2017 et il est actuellement partenaire avec cinq restaurants situés à Lausanne et à Morges. Les visiteurs sont invités à déguster les délicieux plats proposés dans ces restaurants et à offrir des Suspendus à leurs amis. De plus, ils vous invitent à visiter leur site web régulièrement pour découvrir leurs nouveaux partenaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Café_suspendu</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caf%C3%A9_suspendu</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Associations</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Association suisse "Le suspendu"</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Partenaires - Donateurs (liste non exhaustive)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>« Solidarité urbaine », sur lesuspendu.ch (consulté le 30 décembre 2023)
 Cabana Crepes
-Slice Pizza
-Association suisse "Suspend'us"
-L'association Suspend'us, à but non lucratif, est fondée en 2020, et enregistrée au Registre du Commerce du canton de Vaud. Créée pour venir en aide localement aux personnes en situation précaire, l'association met en lien donateurs, bénéficiaires et économie locale via une plateforme web.
+Slice Pizza</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Café_suspendu</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caf%C3%A9_suspendu</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Associations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Association suisse "Suspend'us"</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'association Suspend'us, à but non lucratif, est fondée en 2020, et enregistrée au Registre du Commerce du canton de Vaud. Créée pour venir en aide localement aux personnes en situation précaire, l'association met en lien donateurs, bénéficiaires et économie locale via une plateforme web.
 Leur idée
 d'offrir facilement un Suspend'us à une personne en précarité : c'est géolocalisé, donc facile à consommer.
 de faire choisir à leurs donateurs les biens qu'ils veulent offrir et les partenaires chez qui le bien sera offert.
-de valoriser les partenaires commerçants et prestataires de services locaux en leur offrant l'opportunité d'être solidaires.
-Partenaire - Donateurs (liste non exhaustive)
-« Caritas Vaud », sur caritas (consulté le 30 décembre 2023)
+de valoriser les partenaires commerçants et prestataires de services locaux en leur offrant l'opportunité d'être solidaires.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Café_suspendu</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caf%C3%A9_suspendu</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Associations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Association suisse "Suspend'us"</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Partenaire - Donateurs (liste non exhaustive)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Caritas Vaud », sur caritas (consulté le 30 décembre 2023)
 « Page d’accueil », sur Page d’accueil (consulté le 30 décembre 2023)
 « Le CARÉ », sur lecare.ch (consulté le 30 décembre 2023)
 </t>
